--- a/biology/Histoire de la zoologie et de la botanique/Arlie_William_Schorger/Arlie_William_Schorger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arlie_William_Schorger/Arlie_William_Schorger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arlie William Schorger est un ornithologue américain, né le 6 septembre 1884 à Republic, Ohio et mort le 26 mai 1972.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de John Valentine Schorger et de Core Ellen née Myers. Son grand-père est originaire du nord du grand-duché de Bade. Il fait ses études à Republic puis au Wooster College où il obtient un Bachelor of Philosophy après une spécialisation en chimie. Il obtient son Master of Arts en 1908 et devient alors chimiste assistant au National Institute of Standards and Technology. Détestant ce travail, il obtient son transfert au laboratoire des produits forestiers au service américain des forêts à Madison, Wisconsin. Il se consacre alors à l’étude chimique de différentes espèces d’arbres. Il se marie en 1912 avec Margaret F. Davison. Il poursuit ses études et obtient son Ph. D. en 1916 avec une thèse sur les huiles contenues dans les conifères.
 L’année suivante, il devient le directeur du service de recherche chimique aux laboratoires C.F. Burgess à Madison. En 1931, il devient président de la Burgess Cellulose Co. Il dépose plusieurs brevets sur des produits obtenus du bois ou sur le traitement de celui-ci. Il se retire alors des affaires en 1950. Durant sa vie professionnelle, il fait près de 700 voyages qui lui permettent d’enrichir sa collection d’oiseaux (soit près de 5 000 oiseaux appartenant à 64 espèces). Il tient une comptabilité précise de ses chasses : il tire ainsi 2 784 moineaux domestiques, 389 pics à tête rouge, 271 faisans de Colchide, etc.
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joseph J. Hickey (1973). In Memoriam: Arlie William Schorger, The Auk, 90 : 665-671.  (ISSN 0004-8038)</t>
         </is>
